--- a/assumptions.xlsx
+++ b/assumptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bham-my.sharepoint.com/personal/sxl1405_student_bham_ac_uk/Documents/code/assumption_hunting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{D2EFB06D-AFE1-A842-9509-BB3D06599184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C18CE96-8750-8C4B-8EA3-532B5E9A6E66}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{D2EFB06D-AFE1-A842-9509-BB3D06599184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCE9A8B-2B17-E749-A24D-55EF0A1EBC39}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="12900" windowHeight="15800" activeTab="8" xr2:uid="{2B59B78E-27CF-CD4A-8C23-D643904316C3}"/>
+    <workbookView xWindow="22300" yWindow="-28300" windowWidth="17880" windowHeight="26580" xr2:uid="{2B59B78E-27CF-CD4A-8C23-D643904316C3}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="30" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="222">
   <si>
     <t>Model</t>
   </si>
@@ -627,12 +627,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Water supply is limited to local water supply</t>
-  </si>
-  <si>
-    <t>A single dataset can be used to represent the proportion of irrigated areas</t>
-  </si>
-  <si>
     <t>Irrigated crops can be represented as discrete crops types</t>
   </si>
   <si>
@@ -654,45 +648,18 @@
     <t xml:space="preserve">There can only be up to two cropping seasons </t>
   </si>
   <si>
-    <t>An area with mixed cropping can be treated as an area with one single crop</t>
-  </si>
-  <si>
-    <t>Farmers make rational decisions on sowing dates based solely on climate information</t>
-  </si>
-  <si>
-    <t>Cropping intensity (CI) &lt; 1 suggests that cropland is partly cultivated for one season. While CI &gt; 1 suggests that 1st season is cultivated 100%, allocating the remaining productivity to the 2nd season</t>
-  </si>
-  <si>
-    <t>When water availability is insufficient, withdrawals follow a sequential process, moving to the next source as needed</t>
-  </si>
-  <si>
     <t>The primary crop is planted first, followed by the secondary</t>
   </si>
   <si>
-    <t>Soil is maintained at 100% field capacity (FC) for rice and 75% FC for other crops</t>
-  </si>
-  <si>
     <t>Deep groundwater does not need to be modelled</t>
   </si>
   <si>
-    <t>Irrigation demand can be calculated based on water requirements downstream of the reservoir</t>
-  </si>
-  <si>
-    <t>One single formula can be used to compute the potential evapotranspiration (Epot)</t>
-  </si>
-  <si>
     <t>Irrigation delivery is inefficient</t>
   </si>
   <si>
     <t>Farmers select the cultivar best adapted to the local environment</t>
   </si>
   <si>
-    <t>The onset of the wet season or dry season determines the sowing period</t>
-  </si>
-  <si>
-    <t>Irrigation starts when soil moisture drops below the level where transpiration becomes limited and continues until field capacity</t>
-  </si>
-  <si>
     <t>A single dataset can be used to represent crop factor</t>
   </si>
   <si>
@@ -703,6 +670,48 @@
   </si>
   <si>
     <t>A single dataset can be used to represent crop calendar</t>
+  </si>
+  <si>
+    <t>Soil is kept at 100% field capacity (FC) for rice, 75% FC for other crops</t>
+  </si>
+  <si>
+    <t>Water supply is limited to the local water supply</t>
+  </si>
+  <si>
+    <t>Crop calendars are based only on temperature and precipitation</t>
+  </si>
+  <si>
+    <t>A single dataset can represent the proportion of irrigated areas</t>
+  </si>
+  <si>
+    <t>Irrigation responds dynamically to soil moisture conditions</t>
+  </si>
+  <si>
+    <t>Farmers decide sowing dates based solely on climate information</t>
+  </si>
+  <si>
+    <t>Mixed cropping areas can be treated as an area with one single crop</t>
+  </si>
+  <si>
+    <t>When water is insufficient, withdrawals follow a sequential process</t>
+  </si>
+  <si>
+    <t>Irrigation starts 30 days pre-planting, increasing soil moisture linearly</t>
+  </si>
+  <si>
+    <t>Irrigation demand is based on water needs downstream of reservoir</t>
+  </si>
+  <si>
+    <t>One single formula can compute the potential evapotranspiration</t>
+  </si>
+  <si>
+    <t>Irrigation starts when soil moisture limits transpiration</t>
+  </si>
+  <si>
+    <t>Cropping intensity &lt; 1 means partial use; CI &gt; 1 means two-season use</t>
+  </si>
+  <si>
+    <t>The onset of the wet or dry season determines the sowing period</t>
   </si>
 </sst>
 </file>
@@ -889,10 +898,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1230,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7815C9-8D00-7943-AA97-620184EEE658}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4469,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FA23A9-A8CA-0144-9BCB-7E4278BB2732}">
   <dimension ref="A1:D452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13542,8 +13547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E46EA2-5DCC-5649-838A-31C5745A8D18}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13564,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -13572,7 +13577,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -13580,7 +13585,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -13588,7 +13593,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -13596,7 +13601,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -13612,7 +13617,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -13628,7 +13633,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -13636,7 +13641,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -13644,7 +13649,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -13652,7 +13657,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -13660,7 +13665,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -13668,7 +13673,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -13676,7 +13681,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -13684,7 +13689,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -13700,7 +13705,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -13708,7 +13713,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -13716,7 +13721,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -13732,7 +13737,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -13748,7 +13753,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -13756,7 +13761,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -13764,7 +13769,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -13772,7 +13777,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -13780,7 +13785,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -13788,7 +13793,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -13796,7 +13801,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -13804,7 +13809,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -13812,7 +13817,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -13820,7 +13825,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -13836,7 +13841,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
